--- a/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/ValueSet-no-basis-service-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/ValueSet-no-basis-service-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
